--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="96">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>motionDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -63,18 +59,6 @@
   </si>
   <si>
     <t>damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>combo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>holdmotion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -745,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -757,9 +741,10 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -793,1170 +778,1050 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>5100</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5101</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>0.7</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>5102</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5103</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5104</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5105</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5106</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5107</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5108</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
-      </c>
-      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>5109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>5110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>5111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>5112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>5113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>5114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>5115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>5116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>5117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>5118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>5119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>5120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>5121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>5122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>5123</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>5124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="G26">
         <v>5</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>5125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>5126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>5127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>5128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H30">
+        <v>58</v>
+      </c>
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>5129</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="G31">
         <v>5</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>5130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="G32">
         <v>5</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>5131</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>5132</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H34">
+        <v>14</v>
+      </c>
+      <c r="G34">
         <v>4</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>5133</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H35">
+        <v>25</v>
+      </c>
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K35" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>5134</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H36">
+        <v>14</v>
+      </c>
+      <c r="G36">
         <v>5</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>5135</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="3">
+      <c r="H37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="3">
         <v>10</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC984715-9BC5-4350-BF90-9955457478E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,23 +729,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5100</v>
       </c>
@@ -808,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5101</v>
       </c>
@@ -837,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5102</v>
       </c>
@@ -866,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5103</v>
       </c>
@@ -895,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5104</v>
       </c>
@@ -924,7 +925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5105</v>
       </c>
@@ -953,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5106</v>
       </c>
@@ -983,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5107</v>
       </c>
@@ -1006,14 +1007,14 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5108</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5109</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5110</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5111</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>5112</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>5113</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>5114</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>5115</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>5116</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>5117</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>5118</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5119</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>5120</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5121</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>5122</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>5123</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>5124</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>5125</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>5126</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>5127</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>5128</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>5129</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>5130</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5131</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5132</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>5133</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>5134</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>5135</v>
       </c>
@@ -1828,5 +1829,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC984715-9BC5-4350-BF90-9955457478E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50ACEB9-767A-4682-8E31-BE89D50C50C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,167 +25,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
   <si>
     <t>cid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nameKor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>socket</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>company</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attackType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>coolTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no107_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>107식 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Weakness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WalkersWorkshop</t>
   </si>
   <si>
     <t>melee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no108_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>108식 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SmithsSmithy</t>
   </si>
   <si>
     <t>jake_B_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제이크B 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bounce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jake_R_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제이크R 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Weakness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DSDC</t>
   </si>
   <si>
     <t>range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>doncina01_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돈시나01 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gangster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>doncina02_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돈시나02 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cleaner_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청소부 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cleaner_R_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>불량한 청소부 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Weakness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mingkies_style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>밍키즈 스타일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WalkersWorkshop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13_cat_01_style_00_style</t>
@@ -240,7 +240,7 @@
   </si>
   <si>
     <t>SmithsSmithy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13_crow_00_style</t>
@@ -352,25 +352,53 @@
   </si>
   <si>
     <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 스타일 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_02_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under-Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_ready_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_ready_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -409,13 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,11 +462,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -447,7 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,266 +811,266 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>5100</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="J2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>5101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>5102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="J4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>5103</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>5105</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>5106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="I8" s="4"/>
+      <c r="J8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>5107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>5108</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1048,28 +1079,31 @@
         <v>5109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="J11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1077,28 +1111,31 @@
         <v>5110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="J12" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1106,28 +1143,28 @@
         <v>5111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G13" s="3">
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1135,28 +1172,31 @@
         <v>5112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="J14" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1164,670 +1204,818 @@
         <v>5113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="J15" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>5114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>5115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>5110</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>5116</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>5111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>5117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>58</v>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>5112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>5118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>5119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5114</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>5120</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5115</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>5121</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>5116</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>5122</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>5117</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>5123</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="J24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>5118</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>5124</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>5119</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>5120</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>5125</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>5121</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>5126</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>5127</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>40</v>
+      <c r="J28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>5122</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="J29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>5123</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>5124</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>5125</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>5126</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>5127</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>5128</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="J35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>5129</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>5130</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>5131</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>5132</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G34">
+      <c r="G39">
         <v>4</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="J39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>5133</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="J40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>5134</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>5135</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G37">
+      <c r="G42">
         <v>4</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J42" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50ACEB9-767A-4682-8E31-BE89D50C50C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07472D61-DDE3-4771-A137-AD4E463DC654}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07472D61-DDE3-4771-A137-AD4E463DC654}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A6658-B4AE-4F6D-BAF2-8F13690279C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="108">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>Ailliy_01_ready_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Straight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -952,8 +964,14 @@
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="J6" s="3">
         <v>50</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -979,10 +997,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3">
         <v>15</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1074,172 +1095,178 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>5109</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>5110</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>5111</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>5112</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>5113</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="3">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="3">
-        <v>20</v>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>5109</v>
+        <v>5114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -1248,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1256,19 +1283,25 @@
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="J16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>5110</v>
+        <v>5115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -1285,19 +1318,25 @@
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="J17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>5111</v>
+        <v>5116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1306,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1317,25 +1356,28 @@
       <c r="J18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>5112</v>
+        <v>5117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1346,103 +1388,106 @@
       <c r="J19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>5113</v>
+        <v>5118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5119</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5120</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>5114</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>5115</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>5116</v>
+        <v>5121</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -1451,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1463,24 +1508,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>5117</v>
+        <v>5122</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1492,53 +1537,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>5118</v>
+        <v>5123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>5119</v>
+        <v>5124</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1550,53 +1595,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>5120</v>
+        <v>5125</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>5126</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>5121</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1608,24 +1653,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>5122</v>
+        <v>5127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1637,15 +1682,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>5123</v>
+        <v>5128</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
@@ -1654,27 +1699,27 @@
         <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>5124</v>
+        <v>5129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
@@ -1683,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1695,102 +1740,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>5125</v>
+        <v>5130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>5126</v>
+        <v>5131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J33" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>5127</v>
+        <v>5132</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>5128</v>
+        <v>5133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>12</v>
@@ -1799,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -1811,21 +1856,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>5129</v>
+        <v>5134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>14</v>
@@ -1840,178 +1885,196 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>5130</v>
+        <v>5135</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>5131</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>5132</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>5133</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>5134</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>5135</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="1">
-        <v>10</v>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>5136</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3">
+        <v>20</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="3">
+        <v>20</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>5137</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="3">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="3">
+        <v>20</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>5138</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="3">
+        <v>20</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>5139</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="3">
+        <v>20</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>5140</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="3">
+        <v>20</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A6658-B4AE-4F6D-BAF2-8F13690279C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB75D3FF-2164-4793-B29A-3B159F002831}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,14 @@
   </si>
   <si>
     <t>Straight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_salamander_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2077,6 +2085,38 @@
         <v>20</v>
       </c>
     </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>5141</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB75D3FF-2164-4793-B29A-3B159F002831}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2FA2E0-BCFF-4722-B098-47A2B396A6E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,26 @@
   <si>
     <t>Bottom</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블룸 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블룸 스타일 01</t>
+  </si>
+  <si>
+    <t>블룸 스타일 02</t>
+  </si>
+  <si>
+    <t>19_Bloom_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_01_style</t>
+  </si>
+  <si>
+    <t>19_Bloom_02_style</t>
   </si>
 </sst>
 </file>
@@ -781,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2117,6 +2137,111 @@
         <v>50</v>
       </c>
     </row>
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>5142</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>5143</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>5144</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2FA2E0-BCFF-4722-B098-47A2B396A6E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2583F6-C333-457A-8EAF-9143DF083861}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2198,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J45" s="3">
         <v>5</v>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2583F6-C333-457A-8EAF-9143DF083861}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2FF2CA-6F1A-4EC7-99AB-1A1AA225E631}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,14 @@
   </si>
   <si>
     <t>19_Bloom_02_style</t>
+  </si>
+  <si>
+    <t>도롱뇽 스타일 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +495,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -502,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +533,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1498,13 +1515,19 @@
         <v>18</v>
       </c>
       <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="J22" s="1">
         <v>10</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2113,7 +2136,7 @@
         <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>

--- a/DesignDocs/VariableData/NPCTubeStyle.xlsx
+++ b/DesignDocs/VariableData/NPCTubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2FF2CA-6F1A-4EC7-99AB-1A1AA225E631}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25D4B8A-0397-4972-A7C9-A5CC98DA65DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="152">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,131 @@
   <si>
     <t>Mid</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>18_Pickpock_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Gangster_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Gangster_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량배 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량배 스타일 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소매치기 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Thrower_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Mechanic_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용접공 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투척꾼 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Mechanic_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Welder_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정비공 스타일 00</t>
+  </si>
+  <si>
+    <t>정비공 스타일 01</t>
+  </si>
+  <si>
+    <t>18_Scarlett_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Scarlett_01_style</t>
+  </si>
+  <si>
+    <t>18_Scarlett_02_style</t>
+  </si>
+  <si>
+    <t>스칼렛 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스칼렛 스타일 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스칼렛 스타일 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Dentin_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Dentin_01_style</t>
+  </si>
+  <si>
+    <t>18_Dentin_02_style</t>
+  </si>
+  <si>
+    <t>덴틴 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덴틴 스타일 01</t>
+  </si>
+  <si>
+    <t>덴틴 스타일 02</t>
+  </si>
+  <si>
+    <t>18_Camek_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Camek_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멕 스타일 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gangster</t>
   </si>
 </sst>
 </file>
@@ -476,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +626,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE569C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -516,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,6 +667,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2265,6 +2399,531 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>5145</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="7">
+        <v>10</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>5146</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="7">
+        <v>10</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>5147</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" s="7">
+        <v>10</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>5148</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50" s="7">
+        <v>10</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>5149</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" s="7">
+        <v>10</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>5150</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" s="7">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>5151</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" s="7">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>5152</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" s="7">
+        <v>10</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>5153</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" s="7">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>5154</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" s="7">
+        <v>10</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>5155</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" s="7">
+        <v>10</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>5156</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J58" s="7">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>5157</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J59" s="7">
+        <v>10</v>
+      </c>
+      <c r="K59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>5158</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J60" s="7">
+        <v>10</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>5159</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" s="7">
+        <v>10</v>
+      </c>
+      <c r="K61" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
